--- a/project/windows10/Input_Data_and_Params.xlsx
+++ b/project/windows10/Input_Data_and_Params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Buesen\Desktop\EBTech_2021_Apps\cv-sim-ec-prime-film\project\windows10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Buesen\Desktop\cv-sim-ec-prime-film\project\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4D07AC0-D6B9-407D-BBF2-BFAFE639CE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D5CBA-ED5B-4C52-B175-CAA740C2179F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2700" yWindow="1335" windowWidth="17940" windowHeight="13890" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExptlCVData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Potential [mV]</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>Double Layer Capacitance</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -403,8 +406,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="956929" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -467,7 +470,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -532,8 +535,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="273601" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -596,7 +599,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -661,8 +664,8 @@
       <xdr:rowOff>196850</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="264111" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -744,7 +747,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3">
@@ -821,8 +824,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="597471" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -939,7 +942,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1057,8 +1060,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="532069" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1162,7 +1165,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5">
@@ -1268,8 +1271,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="196079" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1351,7 +1354,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7">
@@ -1428,8 +1431,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="181973" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1511,7 +1514,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8">
@@ -1588,8 +1591,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="120738" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1653,7 +1656,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -1719,8 +1722,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="253659" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -1802,7 +1805,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10">
@@ -1879,8 +1882,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="193643" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -1962,7 +1965,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -2039,8 +2042,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="273601" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -2103,7 +2106,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12">
@@ -2168,8 +2171,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="597471" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -2286,7 +2289,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="TextBox 13">
@@ -2404,8 +2407,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="610295" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2522,7 +2525,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="TextBox 14">
@@ -2640,8 +2643,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="248658" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -2683,6 +2686,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2722,7 +2726,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="16" name="TextBox 15">
@@ -2798,8 +2802,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="157864" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -2881,7 +2885,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="TextBox 16">
@@ -2958,8 +2962,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="254942" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -3041,7 +3045,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="TextBox 17">
@@ -3118,8 +3122,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="174278" cy="183127"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -3201,7 +3205,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18">
@@ -3278,8 +3282,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="190886" cy="178575"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -3369,7 +3373,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="20" name="TextBox 19">
@@ -3446,8 +3450,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="105670" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -3510,7 +3514,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="21" name="TextBox 20">
@@ -3575,8 +3579,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="242823" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -3639,7 +3643,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="22" name="TextBox 21">
@@ -3704,8 +3708,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="242823" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -3768,7 +3772,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="23" name="TextBox 22">
@@ -3833,8 +3837,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="242823" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -3897,7 +3901,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23">
@@ -3962,8 +3966,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="242823" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -4026,7 +4030,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24">
@@ -4091,8 +4095,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="557460" cy="174984"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -4190,7 +4194,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25">
@@ -4290,8 +4294,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="104965" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -4354,7 +4358,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26">
@@ -4419,8 +4423,8 @@
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="122533" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -4483,7 +4487,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27">
@@ -4548,8 +4552,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="118879" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -4612,7 +4616,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="29" name="TextBox 28">
@@ -4677,8 +4681,8 @@
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="229870" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -4747,7 +4751,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="30" name="TextBox 29">
@@ -4812,8 +4816,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="282833" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -4895,7 +4899,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30">
@@ -4978,8 +4982,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="175241" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -5048,7 +5052,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31">
@@ -5113,8 +5117,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="220252" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -5183,7 +5187,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32">
@@ -5248,8 +5252,8 @@
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="202235" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -5312,7 +5316,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33">
@@ -5377,8 +5381,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="177100" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -5460,7 +5464,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="35" name="TextBox 34">
@@ -5537,8 +5541,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="219227" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -5620,7 +5624,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35">
@@ -8679,7 +8683,7 @@
   <dimension ref="A1:AMD23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8734,7 +8738,8 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="16">
-        <v>0.01</v>
+        <f>0.01*100</f>
+        <v>1</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="14" t="s">
@@ -8760,7 +8765,8 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="17">
-        <v>0.05</v>
+        <f>0.05*1E-20</f>
+        <v>4.9999999999999995E-22</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="13" t="s">
@@ -8780,7 +8786,8 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="16">
-        <v>1000000</v>
+        <f>1000000*1E-26</f>
+        <v>1.0000000000000001E-20</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="13" t="s">
@@ -8927,7 +8934,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8955,7 +8962,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -8975,7 +8982,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
@@ -8995,7 +9002,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>

--- a/project/windows10/Input_Data_and_Params.xlsx
+++ b/project/windows10/Input_Data_and_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Buesen\Desktop\cv-sim-ec-prime-film\project\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D5CBA-ED5B-4C52-B175-CAA740C2179F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABAF5F-04BC-4F08-AF57-2D775C219EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1335" windowWidth="17940" windowHeight="13890" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExptlCVData" sheetId="1" r:id="rId1"/>
@@ -150,8 +150,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -248,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,6 +310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6441,8 +6445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B277"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6473,7 +6477,7 @@
         <v>96</v>
       </c>
       <c r="B3" s="3">
-        <v>-6.9563297060527504E-4</v>
+        <v>-3.3454988057720278E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -6481,7 +6485,7 @@
         <v>92</v>
       </c>
       <c r="B4" s="3">
-        <v>-8.1277606308784102E-4</v>
+        <v>-0.10940235399941151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -6489,7 +6493,7 @@
         <v>88</v>
       </c>
       <c r="B5" s="3">
-        <v>-9.4964768137189041E-4</v>
+        <v>-0.20445831169456546</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -6497,7 +6501,7 @@
         <v>84</v>
       </c>
       <c r="B6" s="3">
-        <v>-1.1095169964804507E-3</v>
+        <v>-0.3042998517475764</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -6505,7 +6509,7 @@
         <v>80</v>
       </c>
       <c r="B7" s="3">
-        <v>-1.2962937473166181E-3</v>
+        <v>-0.40081155289817122</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -6513,7 +6517,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="3">
-        <v>-1.51466387430413E-3</v>
+        <v>-0.48973857148639915</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -6521,7 +6525,7 @@
         <v>72</v>
       </c>
       <c r="B9" s="3">
-        <v>-1.769714585896546E-3</v>
+        <v>-0.56919906678034371</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -6529,7 +6533,7 @@
         <v>68</v>
       </c>
       <c r="B10" s="3">
-        <v>-2.0674828689274684E-3</v>
+        <v>-0.6387506010545223</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -6537,7 +6541,7 @@
         <v>64</v>
       </c>
       <c r="B11" s="3">
-        <v>-2.4148274737869841E-3</v>
+        <v>-0.69885291096949187</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -6545,7 +6549,7 @@
         <v>60</v>
       </c>
       <c r="B12" s="3">
-        <v>-2.8204798766977698E-3</v>
+        <v>-0.75011756928078643</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -6553,7 +6557,7 @@
         <v>56</v>
       </c>
       <c r="B13" s="3">
-        <v>-3.2949714811399198E-3</v>
+        <v>-0.79348905194371477</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -6561,7 +6565,7 @@
         <v>52</v>
       </c>
       <c r="B14" s="3">
-        <v>-3.8503466439800843E-3</v>
+        <v>-0.8299574011354145</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -6569,7 +6573,7 @@
         <v>48</v>
       </c>
       <c r="B15" s="3">
-        <v>-4.4984457269640525E-3</v>
+        <v>-0.86047850055721786</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -6577,7 +6581,7 @@
         <v>44</v>
       </c>
       <c r="B16" s="3">
-        <v>-5.2549359501322728E-3</v>
+        <v>-0.88596047338624673</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -6585,7 +6589,7 @@
         <v>40</v>
       </c>
       <c r="B17" s="3">
-        <v>-6.1373265241772878E-3</v>
+        <v>-0.90801117586600377</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -6593,7 +6597,7 @@
         <v>35.999999999999972</v>
       </c>
       <c r="B18" s="3">
-        <v>-7.1698284870723378E-3</v>
+        <v>-0.92646753524637249</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -6601,7 +6605,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="3">
-        <v>-8.3739984417773496E-3</v>
+        <v>-0.94192144666185795</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -6609,7 +6613,7 @@
         <v>28</v>
       </c>
       <c r="B20" s="3">
-        <v>-9.778187394517442E-3</v>
+        <v>-0.95487717785332238</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -6617,7 +6621,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="3">
-        <v>-1.1418629718426304E-2</v>
+        <v>-0.96576077016563722</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -6625,7 +6629,7 @@
         <v>19.999999999999972</v>
       </c>
       <c r="B22" s="3">
-        <v>-1.333250002005113E-2</v>
+        <v>-0.97748466133885825</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -6633,7 +6637,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="3">
-        <v>-1.5564886875088887E-2</v>
+        <v>-0.98539659910810351</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -6641,7 +6645,7 @@
         <v>11.999999999999972</v>
       </c>
       <c r="B24" s="3">
-        <v>-1.8168640458297629E-2</v>
+        <v>-0.99230522095388141</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -6649,7 +6653,7 @@
         <v>7.9999999999999716</v>
       </c>
       <c r="B25" s="3">
-        <v>-2.1204598376342958E-2</v>
+        <v>-0.99841669118085996</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -6657,7 +6661,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="3">
-        <v>-2.4745118817620919E-2</v>
+        <v>-1.0039015868135635</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -6665,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="B27" s="3">
-        <v>-2.8869021497616266E-2</v>
+        <v>-1.0089007603369824</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -6673,7 +6677,7 @@
         <v>-4</v>
       </c>
       <c r="B28" s="3">
-        <v>-3.3668647553369582E-2</v>
+        <v>-1.0179747531233454</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -6681,7 +6685,7 @@
         <v>-8.0000000000000284</v>
       </c>
       <c r="B29" s="3">
-        <v>-3.9252323073136502E-2</v>
+        <v>-1.0251215319777605</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -6689,7 +6693,7 @@
         <v>-12.000000000000028</v>
       </c>
       <c r="B30" s="3">
-        <v>-4.5752771254271414E-2</v>
+        <v>-1.0327402558291672</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -6697,7 +6701,7 @@
         <v>-16</v>
       </c>
       <c r="B31" s="3">
-        <v>-5.3305631835487623E-2</v>
+        <v>-1.041786734207673</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -6705,7 +6709,7 @@
         <v>-20</v>
       </c>
       <c r="B32" s="3">
-        <v>-6.2071682796465792E-2</v>
+        <v>-1.0495200546376382</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -6713,7 +6717,7 @@
         <v>-24</v>
       </c>
       <c r="B33" s="3">
-        <v>-7.2240378922561951E-2</v>
+        <v>-1.058263483312657</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -6721,7 +6725,7 @@
         <v>-28.000000000000028</v>
       </c>
       <c r="B34" s="3">
-        <v>-8.4022802065366178E-2</v>
+        <v>-1.0688370722170668</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -6729,7 +6733,7 @@
         <v>-32</v>
       </c>
       <c r="B35" s="3">
-        <v>-9.7645958067413288E-2</v>
+        <v>-1.0808993083881084</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -6737,7 +6741,7 @@
         <v>-36.000000000000028</v>
       </c>
       <c r="B36" s="3">
-        <v>-0.11337860042577873</v>
+        <v>-1.0953465000688056</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -6745,7 +6749,7 @@
         <v>-40</v>
       </c>
       <c r="B37" s="3">
-        <v>-0.131509834599636</v>
+        <v>-1.1119239466680573</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -6753,7 +6757,7 @@
         <v>-44.000000000000028</v>
       </c>
       <c r="B38" s="3">
-        <v>-0.15235560481088212</v>
+        <v>-1.1309259593305494</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -6761,7 +6765,7 @@
         <v>-48</v>
       </c>
       <c r="B39" s="3">
-        <v>-0.17625827112738604</v>
+        <v>-1.153192703766788</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -6769,7 +6773,7 @@
         <v>-52</v>
       </c>
       <c r="B40" s="3">
-        <v>-0.20357950081183218</v>
+        <v>-1.1793074472971492</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -6777,7 +6781,7 @@
         <v>-56.000000000000028</v>
       </c>
       <c r="B41" s="3">
-        <v>-0.23469849013550292</v>
+        <v>-1.2142557504958369</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -6785,7 +6789,7 @@
         <v>-60.000000000000028</v>
       </c>
       <c r="B42" s="3">
-        <v>-0.26998362154583583</v>
+        <v>-1.246205003652147</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -6793,7 +6797,7 @@
         <v>-64</v>
       </c>
       <c r="B43" s="3">
-        <v>-0.30979284447964417</v>
+        <v>-1.2882609455157414</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -6801,7 +6805,7 @@
         <v>-68</v>
       </c>
       <c r="B44" s="3">
-        <v>-0.35444657829402265</v>
+        <v>-1.3355308287378951</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -6809,7 +6813,7 @@
         <v>-72.000000000000028</v>
       </c>
       <c r="B45" s="3">
-        <v>-0.40419493976953719</v>
+        <v>-1.384425108388639</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -6817,7 +6821,7 @@
         <v>-76.000000000000028</v>
       </c>
       <c r="B46" s="3">
-        <v>-0.45919176367053155</v>
+        <v>-1.4432706941248128</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -6825,7 +6829,7 @@
         <v>-80</v>
       </c>
       <c r="B47" s="3">
-        <v>-0.51943807657464292</v>
+        <v>-1.522409671656934</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -6833,7 +6837,7 @@
         <v>-84.000000000000028</v>
       </c>
       <c r="B48" s="3">
-        <v>-0.5847509533846903</v>
+        <v>-1.5953979952690611</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -6841,7 +6845,7 @@
         <v>-88.000000000000014</v>
       </c>
       <c r="B49" s="3">
-        <v>-0.65473854701209278</v>
+        <v>-1.6838280480641061</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -6849,7 +6853,7 @@
         <v>-92.000000000000014</v>
       </c>
       <c r="B50" s="3">
-        <v>-0.72874863230109532</v>
+        <v>-1.7831688077743437</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -6857,7 +6861,7 @@
         <v>-96</v>
       </c>
       <c r="B51" s="3">
-        <v>-0.80588651509682818</v>
+        <v>-1.8957130187588684</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -6865,7 +6869,7 @@
         <v>-100.00000000000001</v>
       </c>
       <c r="B52" s="3">
-        <v>-0.88503561108469675</v>
+        <v>-2.0196752001742526</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -6873,7 +6877,7 @@
         <v>-104.00000000000003</v>
       </c>
       <c r="B53" s="3">
-        <v>-0.96493111744216331</v>
+        <v>-2.156021483416581</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -6881,7 +6885,7 @@
         <v>-108.00000000000001</v>
       </c>
       <c r="B54" s="3">
-        <v>-1.0442755236310211</v>
+        <v>-2.3045909998790108</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -6889,7 +6893,7 @@
         <v>-112.00000000000004</v>
       </c>
       <c r="B55" s="3">
-        <v>-1.1218699175128812</v>
+        <v>-2.4648638542453627</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -6897,7 +6901,7 @@
         <v>-116.00000000000003</v>
       </c>
       <c r="B56" s="3">
-        <v>-1.1967532627688959</v>
+        <v>-2.6356366976678811</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -6905,7 +6909,7 @@
         <v>-120.00000000000001</v>
       </c>
       <c r="B57" s="3">
-        <v>-1.2682969020558166</v>
+        <v>-2.8153935234177672</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -6913,7 +6917,7 @@
         <v>-124.00000000000006</v>
       </c>
       <c r="B58" s="3">
-        <v>-1.3362514094444071</v>
+        <v>-2.9981348863914898</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -6921,7 +6925,7 @@
         <v>-128</v>
       </c>
       <c r="B59" s="3">
-        <v>-1.400709793975212</v>
+        <v>-3.1826512644903246</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -6929,7 +6933,7 @@
         <v>-132</v>
       </c>
       <c r="B60" s="3">
-        <v>-1.4620242345254106</v>
+        <v>-3.3707200472641836</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -6937,7 +6941,7 @@
         <v>-136</v>
       </c>
       <c r="B61" s="3">
-        <v>-1.5206957166680446</v>
+        <v>-3.5552028767603079</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -6945,7 +6949,7 @@
         <v>-140</v>
       </c>
       <c r="B62" s="3">
-        <v>-1.5772654488233886</v>
+        <v>-3.7327836789676079</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -6953,7 +6957,7 @@
         <v>-144.00000000000003</v>
       </c>
       <c r="B63" s="3">
-        <v>-1.6322266305460427</v>
+        <v>-3.9027829460235042</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -6961,7 +6965,7 @@
         <v>-148.00000000000003</v>
       </c>
       <c r="B64" s="3">
-        <v>-1.6859700316549204</v>
+        <v>-4.0705147937847928</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -6969,7 +6973,7 @@
         <v>-152</v>
       </c>
       <c r="B65" s="3">
-        <v>-1.7387707735677438</v>
+        <v>-4.2271007689338713</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -6977,7 +6981,7 @@
         <v>-156.00000000000003</v>
       </c>
       <c r="B66" s="3">
-        <v>-1.7907661857633117</v>
+        <v>-4.376892440515503</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -6985,7 +6989,7 @@
         <v>-160.00000000000003</v>
       </c>
       <c r="B67" s="3">
-        <v>-1.8419850490923446</v>
+        <v>-4.5246300368267027</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -6993,7 +6997,7 @@
         <v>-164</v>
       </c>
       <c r="B68" s="3">
-        <v>-1.8923635935766816</v>
+        <v>-4.6717219089789719</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -7001,7 +7005,7 @@
         <v>-168.00000000000006</v>
       </c>
       <c r="B69" s="3">
-        <v>-1.9417644883071334</v>
+        <v>-4.8196128467409203</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -7009,7 +7013,7 @@
         <v>-172.00000000000003</v>
       </c>
       <c r="B70" s="3">
-        <v>-1.9899938663247574</v>
+        <v>-4.9666329297151144</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -7017,7 +7021,7 @@
         <v>-176.00000000000003</v>
       </c>
       <c r="B71" s="3">
-        <v>-2.036801788248058</v>
+        <v>-5.1158550074896052</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -7025,7 +7029,7 @@
         <v>-180</v>
       </c>
       <c r="B72" s="3">
-        <v>-2.0819070233046659</v>
+        <v>-5.2691397150828285</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -7033,7 +7037,7 @@
         <v>-184</v>
       </c>
       <c r="B73" s="3">
-        <v>-2.1250109055745159</v>
+        <v>-5.4213571299758998</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -7041,7 +7045,7 @@
         <v>-188.00000000000003</v>
       </c>
       <c r="B74" s="3">
-        <v>-2.1658189678171449</v>
+        <v>-5.5756872823053643</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -7049,7 +7053,7 @@
         <v>-192</v>
       </c>
       <c r="B75" s="3">
-        <v>-2.2040094429439372</v>
+        <v>-5.7278842772715031</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -7057,7 +7061,7 @@
         <v>-196</v>
       </c>
       <c r="B76" s="3">
-        <v>-2.2392680445845254</v>
+        <v>-5.8766576642736776</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -7065,7 +7069,7 @@
         <v>-200.00000000000003</v>
       </c>
       <c r="B77" s="3">
-        <v>-2.2712952890626625</v>
+        <v>-6.0186872356820489</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -7073,7 +7077,7 @@
         <v>-204.00000000000003</v>
       </c>
       <c r="B78" s="3">
-        <v>-2.2998085167962814</v>
+        <v>-6.1509002183533212</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -7081,7 +7085,7 @@
         <v>-208</v>
       </c>
       <c r="B79" s="3">
-        <v>-2.3245551128101893</v>
+        <v>-6.2749346185373369</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -7089,7 +7093,7 @@
         <v>-212.00000000000003</v>
       </c>
       <c r="B80" s="3">
-        <v>-2.3453157036552441</v>
+        <v>-6.3782062474917813</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -7097,7 +7101,7 @@
         <v>-216.00000000000003</v>
       </c>
       <c r="B81" s="3">
-        <v>-2.3619195656595982</v>
+        <v>-6.4681636911360494</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -7105,7 +7109,7 @@
         <v>-220.00000000000006</v>
       </c>
       <c r="B82" s="3">
-        <v>-2.3742386083857956</v>
+        <v>-6.542682368402108</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -7113,7 +7117,7 @@
         <v>-224.00000000000006</v>
       </c>
       <c r="B83" s="3">
-        <v>-2.3822229643230606</v>
+        <v>-6.5942329183508015</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -7121,7 +7125,7 @@
         <v>-228</v>
       </c>
       <c r="B84" s="3">
-        <v>-2.3858816630495632</v>
+        <v>-6.6285171465072654</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -7129,7 +7133,7 @@
         <v>-232.00000000000003</v>
       </c>
       <c r="B85" s="3">
-        <v>-2.3852928733836802</v>
+        <v>-6.641646475388546</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -7137,7 +7141,7 @@
         <v>-236</v>
       </c>
       <c r="B86" s="3">
-        <v>-2.3806052950389658</v>
+        <v>-6.6394710750820423</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -7145,7 +7149,7 @@
         <v>-240</v>
       </c>
       <c r="B87" s="3">
-        <v>-2.3720399151039286</v>
+        <v>-6.6187732422104562</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -7153,7 +7157,7 @@
         <v>-244.00000000000003</v>
       </c>
       <c r="B88" s="3">
-        <v>-2.3598896216402503</v>
+        <v>-6.5835088212128552</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -7161,7 +7165,7 @@
         <v>-248</v>
       </c>
       <c r="B89" s="3">
-        <v>-2.3444807780462091</v>
+        <v>-6.536925235721494</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -7169,7 +7173,7 @@
         <v>-252.00000000000006</v>
       </c>
       <c r="B90" s="3">
-        <v>-2.3262080356001062</v>
+        <v>-6.4791459148907347</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -7177,7 +7181,7 @@
         <v>-256.00000000000006</v>
       </c>
       <c r="B91" s="3">
-        <v>-2.3054853838894185</v>
+        <v>-6.4146807824412297</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -7185,7 +7189,7 @@
         <v>-260</v>
       </c>
       <c r="B92" s="3">
-        <v>-2.2827540628588276</v>
+        <v>-6.3437439895543557</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -7193,7 +7197,7 @@
         <v>-264.00000000000006</v>
       </c>
       <c r="B93" s="3">
-        <v>-2.2584453039627554</v>
+        <v>-6.2691378006545504</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -7201,7 +7205,7 @@
         <v>-268.00000000000006</v>
       </c>
       <c r="B94" s="3">
-        <v>-2.2329865701942215</v>
+        <v>-6.1916533956269237</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -7209,7 +7213,7 @@
         <v>-272</v>
       </c>
       <c r="B95" s="3">
-        <v>-2.206782827966927</v>
+        <v>-6.1145552747550411</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -7217,7 +7221,7 @@
         <v>-276</v>
       </c>
       <c r="B96" s="3">
-        <v>-2.1802086996721415</v>
+        <v>-6.0348651542455212</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -7225,7 +7229,7 @@
         <v>-280</v>
       </c>
       <c r="B97" s="3">
-        <v>-2.1535979797864311</v>
+        <v>-5.9621013656409083</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -7233,7 +7237,7 @@
         <v>-284</v>
       </c>
       <c r="B98" s="3">
-        <v>-2.1272422570857006</v>
+        <v>-5.8860906824623447</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -7241,7 +7245,7 @@
         <v>-288</v>
       </c>
       <c r="B99" s="3">
-        <v>-2.1013924558177295</v>
+        <v>-5.8136978312180094</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -7249,7 +7253,7 @@
         <v>-292</v>
       </c>
       <c r="B100" s="3">
-        <v>-2.0762447325448186</v>
+        <v>-5.7464799677669527</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -7257,7 +7261,7 @@
         <v>-296.00000000000006</v>
       </c>
       <c r="B101" s="3">
-        <v>-2.0519435390880192</v>
+        <v>-5.6798842605606108</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -7265,7 +7269,7 @@
         <v>-300</v>
       </c>
       <c r="B102" s="3">
-        <v>-2.0286304626050762</v>
+        <v>-5.6179613961040786</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -7273,7 +7277,7 @@
         <v>-304</v>
       </c>
       <c r="B103" s="3">
-        <v>-2.0063656536606169</v>
+        <v>-5.5596701950902396</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -7281,7 +7285,7 @@
         <v>-308.00000000000006</v>
       </c>
       <c r="B104" s="3">
-        <v>-1.9852422154296754</v>
+        <v>-5.5048214043655808</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -7289,7 +7293,7 @@
         <v>-312</v>
       </c>
       <c r="B105" s="3">
-        <v>-1.965259382264382</v>
+        <v>-5.4535392482953187</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -7297,7 +7301,7 @@
         <v>-316</v>
       </c>
       <c r="B106" s="3">
-        <v>-1.9464353673632953</v>
+        <v>-5.4058554331165576</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -7305,7 +7309,7 @@
         <v>-320</v>
       </c>
       <c r="B107" s="3">
-        <v>-1.9287618488550387</v>
+        <v>-5.3614933225302082</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -7313,7 +7317,7 @@
         <v>-324.00000000000011</v>
       </c>
       <c r="B108" s="3">
-        <v>-1.912208673476659</v>
+        <v>-5.3199758799198786</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -7321,7 +7325,7 @@
         <v>-328.00000000000006</v>
       </c>
       <c r="B109" s="3">
-        <v>-1.8967537525826605</v>
+        <v>-5.2811142589617486</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -7329,7 +7333,7 @@
         <v>-332.00000000000006</v>
       </c>
       <c r="B110" s="3">
-        <v>-1.8823588055989511</v>
+        <v>-5.2453067705143255</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -7337,7 +7341,7 @@
         <v>-336.00000000000006</v>
       </c>
       <c r="B111" s="3">
-        <v>-1.8689481711243172</v>
+        <v>-5.2125216515712331</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -7345,7 +7349,7 @@
         <v>-340</v>
       </c>
       <c r="B112" s="3">
-        <v>-1.8565176988293377</v>
+        <v>-5.1821744111803314</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -7353,7 +7357,7 @@
         <v>-344.00000000000011</v>
       </c>
       <c r="B113" s="3">
-        <v>-1.8449723805359941</v>
+        <v>-5.1539142847171089</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -7361,7 +7365,7 @@
         <v>-348.00000000000011</v>
       </c>
       <c r="B114" s="3">
-        <v>-1.8343011326238223</v>
+        <v>-5.1277675360162585</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -7369,7 +7373,7 @@
         <v>-352</v>
       </c>
       <c r="B115" s="3">
-        <v>-1.824424747159292</v>
+        <v>-5.103890662631664</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -7377,7 +7381,7 @@
         <v>-356</v>
       </c>
       <c r="B116" s="3">
-        <v>-1.815311447410245</v>
+        <v>-5.0817723810086433</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -7385,7 +7389,7 @@
         <v>-360</v>
       </c>
       <c r="B117" s="3">
-        <v>-1.8068793973273298</v>
+        <v>-5.0614954077368326</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -7393,7 +7397,7 @@
         <v>-363.99999999999994</v>
       </c>
       <c r="B118" s="3">
-        <v>-1.799112662188175</v>
+        <v>-5.0427949748128906</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -7401,7 +7405,7 @@
         <v>-368</v>
       </c>
       <c r="B119" s="3">
-        <v>-1.7919616040894282</v>
+        <v>-5.025603465277598</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -7409,7 +7413,7 @@
         <v>-372</v>
       </c>
       <c r="B120" s="3">
-        <v>-1.7853594648247082</v>
+        <v>-5.0098171339710715</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -7417,7 +7421,7 @@
         <v>-376</v>
       </c>
       <c r="B121" s="3">
-        <v>-1.7792893535545335</v>
+        <v>-4.9952885679387942</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -7425,7 +7429,7 @@
         <v>-380</v>
       </c>
       <c r="B122" s="3">
-        <v>-1.7737083544931007</v>
+        <v>-4.9819845509484404</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -7433,7 +7437,7 @@
         <v>-384</v>
       </c>
       <c r="B123" s="3">
-        <v>-1.7685737413784317</v>
+        <v>-4.9697788502335882</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -7441,7 +7445,7 @@
         <v>-388.00000000000006</v>
       </c>
       <c r="B124" s="3">
-        <v>-1.7638530315801184</v>
+        <v>-4.9585142615770117</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -7449,7 +7453,7 @@
         <v>-392.00000000000006</v>
       </c>
       <c r="B125" s="3">
-        <v>-1.7595156817428197</v>
+        <v>-4.9482264705898373</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -7457,7 +7461,7 @@
         <v>-396</v>
       </c>
       <c r="B126" s="3">
-        <v>-1.7555314367139354</v>
+        <v>-4.9387421348017932</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -7465,7 +7469,7 @@
         <v>-400</v>
       </c>
       <c r="B127" s="3">
-        <v>-1.7518736094617624</v>
+        <v>-4.9300907148506452</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -7473,7 +7477,7 @@
         <v>-404</v>
       </c>
       <c r="B128" s="3">
-        <v>-1.7485149423793915</v>
+        <v>-4.9221389300696323</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -7481,7 +7485,7 @@
         <v>-408</v>
       </c>
       <c r="B129" s="3">
-        <v>-1.745428672147177</v>
+        <v>-4.9148349942727725</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -7489,7 +7493,7 @@
         <v>-412.00000000000011</v>
       </c>
       <c r="B130" s="3">
-        <v>-1.7425979847467428</v>
+        <v>-4.9081626187326339</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -7497,7 +7501,7 @@
         <v>-416.00000000000006</v>
       </c>
       <c r="B131" s="3">
-        <v>-1.7400047649703319</v>
+        <v>-4.9020248118083307</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -7505,7 +7509,7 @@
         <v>-420.00000000000006</v>
       </c>
       <c r="B132" s="3">
-        <v>-1.737628265690941</v>
+        <v>-4.8964149263912766</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -7513,7 +7517,7 @@
         <v>-424</v>
       </c>
       <c r="B133" s="3">
-        <v>-1.7354489186754991</v>
+        <v>-4.8912794210112684</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -7521,7 +7525,7 @@
         <v>-428</v>
       </c>
       <c r="B134" s="3">
-        <v>-1.7334490175808452</v>
+        <v>-4.8865707807191683</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -7529,7 +7533,7 @@
         <v>-432.00000000000011</v>
       </c>
       <c r="B135" s="3">
-        <v>-1.7316170467768035</v>
+        <v>-4.8822482417692896</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -7537,7 +7541,7 @@
         <v>-436.00000000000011</v>
       </c>
       <c r="B136" s="3">
-        <v>-1.7299384361213352</v>
+        <v>-4.8782952155683246</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -7545,7 +7549,7 @@
         <v>-440.00000000000011</v>
       </c>
       <c r="B137" s="3">
-        <v>-1.7284001726758598</v>
+        <v>-4.8746818976087436</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -7553,7 +7557,7 @@
         <v>-444.00000000000006</v>
       </c>
       <c r="B138" s="3">
-        <v>-1.7269908505231335</v>
+        <v>-4.8713660718737994</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -7561,7 +7565,7 @@
         <v>-448.00000000000006</v>
       </c>
       <c r="B139" s="3">
-        <v>-1.7256993624574257</v>
+        <v>-4.8683223176396995</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -7569,7 +7573,7 @@
         <v>-448.00000000000006</v>
       </c>
       <c r="B140" s="3">
-        <v>-1.7243243441834424</v>
+        <v>-3.8560594788193154</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -7577,7 +7581,7 @@
         <v>-444.00000000000006</v>
       </c>
       <c r="B141" s="3">
-        <v>-1.723078467439296</v>
+        <v>-3.795237384682836</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -7585,7 +7589,7 @@
         <v>-440.00000000000011</v>
       </c>
       <c r="B142" s="3">
-        <v>-1.7219656182954519</v>
+        <v>-3.7049674076820676</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -7593,7 +7597,7 @@
         <v>-436.00000000000011</v>
       </c>
       <c r="B143" s="3">
-        <v>-1.7209476529709147</v>
+        <v>-3.6039470860129912</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -7601,7 +7605,7 @@
         <v>-432.00000000000011</v>
       </c>
       <c r="B144" s="3">
-        <v>-1.7200052835475714</v>
+        <v>-3.5029808915535194</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -7609,7 +7613,7 @@
         <v>-428</v>
       </c>
       <c r="B145" s="3">
-        <v>-1.7191259223847204</v>
+        <v>-3.4080038798567198</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -7617,7 +7621,7 @@
         <v>-424</v>
       </c>
       <c r="B146" s="3">
-        <v>-1.7182993628038741</v>
+        <v>-3.3219119606945577</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -7625,7 +7629,7 @@
         <v>-420.00000000000006</v>
       </c>
       <c r="B147" s="3">
-        <v>-1.7175123516854929</v>
+        <v>-3.245743949343721</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -7633,7 +7637,7 @@
         <v>-416.00000000000006</v>
       </c>
       <c r="B148" s="3">
-        <v>-1.7167601003821709</v>
+        <v>-3.1795551432962439</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -7641,7 +7645,7 @@
         <v>-412.00000000000011</v>
       </c>
       <c r="B149" s="3">
-        <v>-1.7160284999362443</v>
+        <v>-3.1226538122076608</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -7649,7 +7653,7 @@
         <v>-408</v>
       </c>
       <c r="B150" s="3">
-        <v>-1.7153117301245708</v>
+        <v>-3.0741034663745412</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -7657,7 +7661,7 @@
         <v>-404</v>
       </c>
       <c r="B151" s="3">
-        <v>-1.7146016743489161</v>
+        <v>-3.0330054334376042</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -7665,7 +7669,7 @@
         <v>-400</v>
       </c>
       <c r="B152" s="3">
-        <v>-1.7138857398953833</v>
+        <v>-2.998330586214403</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -7673,7 +7677,7 @@
         <v>-396</v>
       </c>
       <c r="B153" s="3">
-        <v>-1.7131529961729919</v>
+        <v>-2.9691032808494144</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -7681,7 +7685,7 @@
         <v>-392.00000000000006</v>
       </c>
       <c r="B154" s="3">
-        <v>-1.7123910128290594</v>
+        <v>-2.9444901601819855</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -7689,7 +7693,7 @@
         <v>-388.00000000000006</v>
       </c>
       <c r="B155" s="3">
-        <v>-1.7115825050668223</v>
+        <v>-2.9237035679294259</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -7697,7 +7701,7 @@
         <v>-384</v>
       </c>
       <c r="B156" s="3">
-        <v>-1.7107152299199255</v>
+        <v>-2.9060452455766255</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -7705,7 +7709,7 @@
         <v>-380</v>
       </c>
       <c r="B157" s="3">
-        <v>-1.7097838165449866</v>
+        <v>-2.8909552826798337</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -7713,7 +7717,7 @@
         <v>-376</v>
       </c>
       <c r="B158" s="3">
-        <v>-1.7087678477055215</v>
+        <v>-2.8779730509788553</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -7721,7 +7725,7 @@
         <v>-372</v>
       </c>
       <c r="B159" s="3">
-        <v>-1.7076419643424308</v>
+        <v>-2.8666917591085426</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -7729,7 +7733,7 @@
         <v>-368</v>
       </c>
       <c r="B160" s="3">
-        <v>-1.7063774737749984</v>
+        <v>-2.856689023737236</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -7737,7 +7741,7 @@
         <v>-363.99999999999994</v>
       </c>
       <c r="B161" s="3">
-        <v>-1.7049429207869673</v>
+        <v>-2.8474114424097445</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -7745,7 +7749,7 @@
         <v>-360</v>
       </c>
       <c r="B162" s="3">
-        <v>-1.7033266364641171</v>
+        <v>-2.838937837691228</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -7753,7 +7757,7 @@
         <v>-356</v>
       </c>
       <c r="B163" s="3">
-        <v>-1.7014980358893812</v>
+        <v>-2.8308017179422458</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -7761,7 +7765,7 @@
         <v>-352</v>
       </c>
       <c r="B164" s="3">
-        <v>-1.699392030476961</v>
+        <v>-2.8227684529886061</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -7769,7 +7773,7 @@
         <v>-348.00000000000011</v>
       </c>
       <c r="B165" s="3">
-        <v>-1.6969698048791773</v>
+        <v>-2.8145075214907593</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
@@ -7777,7 +7781,7 @@
         <v>-344.00000000000011</v>
       </c>
       <c r="B166" s="3">
-        <v>-1.6941836298246427</v>
+        <v>-2.8059120378144353</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -7785,7 +7789,7 @@
         <v>-340</v>
       </c>
       <c r="B167" s="3">
-        <v>-1.6909880470205709</v>
+        <v>-2.7968315781696926</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -7793,7 +7797,7 @@
         <v>-336.00000000000006</v>
       </c>
       <c r="B168" s="3">
-        <v>-1.6873195188478747</v>
+        <v>-2.7870046043050909</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -7801,7 +7805,7 @@
         <v>-332.00000000000006</v>
       </c>
       <c r="B169" s="3">
-        <v>-1.6830355568143816</v>
+        <v>-2.775990769304602</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -7809,7 +7813,7 @@
         <v>-328.00000000000006</v>
       </c>
       <c r="B170" s="3">
-        <v>-1.6781149404578726</v>
+        <v>-2.7635251491377972</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -7817,7 +7821,7 @@
         <v>-324.00000000000011</v>
       </c>
       <c r="B171" s="3">
-        <v>-1.6724316010766402</v>
+        <v>-2.7496761758790349</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -7825,7 +7829,7 @@
         <v>-320</v>
       </c>
       <c r="B172" s="3">
-        <v>-1.6658863173677685</v>
+        <v>-2.733758400030339</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -7833,7 +7837,7 @@
         <v>-316</v>
       </c>
       <c r="B173" s="3">
-        <v>-1.6583427496874725</v>
+        <v>-2.7155227925605017</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -7841,7 +7845,7 @@
         <v>-312</v>
       </c>
       <c r="B174" s="3">
-        <v>-1.6496668059056112</v>
+        <v>-2.6946279202083456</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -7849,7 +7853,7 @@
         <v>-308.00000000000006</v>
       </c>
       <c r="B175" s="3">
-        <v>-1.6397023152057417</v>
+        <v>-2.670488206217108</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -7857,7 +7861,7 @@
         <v>-304</v>
       </c>
       <c r="B176" s="3">
-        <v>-1.6282780923052029</v>
+        <v>-2.6433200303258468</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -7865,7 +7869,7 @@
         <v>-300</v>
       </c>
       <c r="B177" s="3">
-        <v>-1.6152259778950635</v>
+        <v>-2.6117079681169848</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -7873,7 +7877,7 @@
         <v>-296.00000000000006</v>
       </c>
       <c r="B178" s="3">
-        <v>-1.6003524020323656</v>
+        <v>-2.574300472503503</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -7881,7 +7885,7 @@
         <v>-292</v>
       </c>
       <c r="B179" s="3">
-        <v>-1.583453791484259</v>
+        <v>-2.5327394663028064</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -7889,7 +7893,7 @@
         <v>-288</v>
       </c>
       <c r="B180" s="3">
-        <v>-1.564338072520667</v>
+        <v>-2.4850884571514071</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -7897,7 +7901,7 @@
         <v>-284</v>
       </c>
       <c r="B181" s="3">
-        <v>-1.5427998246559325</v>
+        <v>-2.4304286173292242</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -7905,7 +7909,7 @@
         <v>-280</v>
       </c>
       <c r="B182" s="3">
-        <v>-1.5186482076736649</v>
+        <v>-2.3677026895754096</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -7913,7 +7917,7 @@
         <v>-276</v>
       </c>
       <c r="B183" s="3">
-        <v>-1.4917490121257782</v>
+        <v>-2.2963568196304007</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -7921,7 +7925,7 @@
         <v>-272</v>
       </c>
       <c r="B184" s="3">
-        <v>-1.4619214719521456</v>
+        <v>-2.2156495772920834</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -7929,7 +7933,7 @@
         <v>-268</v>
       </c>
       <c r="B185" s="3">
-        <v>-1.4290715273915324</v>
+        <v>-2.1249149252684632</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -7937,7 +7941,7 @@
         <v>-264</v>
       </c>
       <c r="B186" s="3">
-        <v>-1.3931865464160351</v>
+        <v>-2.0240559602758106</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -7945,7 +7949,7 @@
         <v>-260</v>
       </c>
       <c r="B187" s="3">
-        <v>-1.3542065286566409</v>
+        <v>-1.912861954001825</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -7953,7 +7957,7 @@
         <v>-256</v>
       </c>
       <c r="B188" s="3">
-        <v>-1.3123060538563402</v>
+        <v>-1.7911406663809593</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -7961,7 +7965,7 @@
         <v>-252</v>
       </c>
       <c r="B189" s="3">
-        <v>-1.2675640644278483</v>
+        <v>-1.6583391929651397</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -7969,7 +7973,7 @@
         <v>-248.00000000000006</v>
       </c>
       <c r="B190" s="3">
-        <v>-1.2202702123368119</v>
+        <v>-1.5140562272240639</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -7977,7 +7981,7 @@
         <v>-244.00000000000006</v>
       </c>
       <c r="B191" s="3">
-        <v>-1.1707344880612178</v>
+        <v>-1.3580154663812656</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -7985,7 +7989,7 @@
         <v>-240.00000000000003</v>
       </c>
       <c r="B192" s="3">
-        <v>-1.1194228500872605</v>
+        <v>-1.1931715567849259</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -7993,7 +7997,7 @@
         <v>-236.00000000000006</v>
       </c>
       <c r="B193" s="3">
-        <v>-1.0667980347888284</v>
+        <v>-1.0249839922547932</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -8001,7 +8005,7 @@
         <v>-232.00000000000006</v>
       </c>
       <c r="B194" s="3">
-        <v>-1.0134466805428231</v>
+        <v>-0.85297194216781436</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -8009,7 +8013,7 @@
         <v>-228.00000000000003</v>
       </c>
       <c r="B195" s="3">
-        <v>-0.96001926129299675</v>
+        <v>-0.68079459917083729</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -8017,7 +8021,7 @@
         <v>-224.00000000000006</v>
       </c>
       <c r="B196" s="3">
-        <v>-0.90720017263666186</v>
+        <v>-0.51294966612540793</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -8025,7 +8029,7 @@
         <v>-220.00000000000006</v>
       </c>
       <c r="B197" s="3">
-        <v>-0.8557534315122467</v>
+        <v>-0.35395123580859189</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -8033,7 +8037,7 @@
         <v>-216.00000000000003</v>
       </c>
       <c r="B198" s="3">
-        <v>-0.80645663013239977</v>
+        <v>-0.20828837986457471</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -8041,7 +8045,7 @@
         <v>-212.00000000000003</v>
       </c>
       <c r="B199" s="3">
-        <v>-0.76012228631663903</v>
+        <v>-8.0807308454867277E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -8049,7 +8053,7 @@
         <v>-208</v>
       </c>
       <c r="B200" s="3">
-        <v>-0.71758594402310572</v>
+        <v>2.3706267583372131E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -8057,7 +8061,7 @@
         <v>-204.00000000000003</v>
       </c>
       <c r="B201" s="3">
-        <v>-0.67969484438922512</v>
+        <v>0.10039908085446336</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -8065,7 +8069,7 @@
         <v>-200.00000000000003</v>
       </c>
       <c r="B202" s="3">
-        <v>-0.64730675656801995</v>
+        <v>0.1460303931850464</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -8073,7 +8077,7 @@
         <v>-196.00000000000009</v>
       </c>
       <c r="B203" s="3">
-        <v>-0.62129855192491135</v>
+        <v>0.15613958685223128</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -8081,7 +8085,7 @@
         <v>-192</v>
       </c>
       <c r="B204" s="3">
-        <v>-0.60250244333073832</v>
+        <v>0.12831344376073195</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -8089,7 +8093,7 @@
         <v>-188.00000000000011</v>
       </c>
       <c r="B205" s="3">
-        <v>-0.59180054882908428</v>
+        <v>5.9913916996124694E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -8097,7 +8101,7 @@
         <v>-184</v>
       </c>
       <c r="B206" s="3">
-        <v>-0.59000959306647449</v>
+        <v>-5.017333965594406E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -8105,7 +8109,7 @@
         <v>-180.00000000000009</v>
       </c>
       <c r="B207" s="3">
-        <v>-0.597843521481912</v>
+        <v>-0.20264674054442622</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -8113,7 +8117,7 @@
         <v>-176.00000000000003</v>
       </c>
       <c r="B208" s="3">
-        <v>-0.61594947653800969</v>
+        <v>-0.3958942784259678</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -8121,7 +8125,7 @@
         <v>-172.00000000000009</v>
       </c>
       <c r="B209" s="3">
-        <v>-0.64470191662538767</v>
+        <v>-0.62481209788776149</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -8129,7 +8133,7 @@
         <v>-168</v>
       </c>
       <c r="B210" s="3">
-        <v>-0.68425126451441387</v>
+        <v>-0.87978280966291222</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -8137,7 +8141,7 @@
         <v>-164.00000000000006</v>
       </c>
       <c r="B211" s="3">
-        <v>-0.73420003142759649</v>
+        <v>-1.1420712680413483</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -8145,7 +8149,7 @@
         <v>-159.99999999999997</v>
       </c>
       <c r="B212" s="3">
-        <v>-0.79353114133596281</v>
+        <v>-1.382956779493397</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -8153,7 +8157,7 @@
         <v>-156.00000000000009</v>
       </c>
       <c r="B213" s="3">
-        <v>-0.8603623890375105</v>
+        <v>-1.5629119938656371</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -8161,7 +8165,7 @@
         <v>-151.99999999999994</v>
       </c>
       <c r="B214" s="3">
-        <v>-0.93183825073670434</v>
+        <v>-1.6529892592975588</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -8169,7 +8173,7 @@
         <v>-148.00000000000006</v>
       </c>
       <c r="B215" s="3">
-        <v>-1.0039364091036769</v>
+        <v>-1.6577691774247454</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -8177,7 +8181,7 @@
         <v>-144</v>
       </c>
       <c r="B216" s="3">
-        <v>-1.0715579307167082</v>
+        <v>-1.5984528698344023</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -8185,7 +8189,7 @@
         <v>-140.00000000000006</v>
       </c>
       <c r="B217" s="3">
-        <v>-1.1288652945009583</v>
+        <v>-1.5083311120836522</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -8193,7 +8197,7 @@
         <v>-135.99999999999997</v>
       </c>
       <c r="B218" s="3">
-        <v>-1.1702903332944816</v>
+        <v>-1.3862169500685206</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -8201,7 +8205,7 @@
         <v>-132.00000000000003</v>
       </c>
       <c r="B219" s="3">
-        <v>-1.1921909790357657</v>
+        <v>-1.2436523213618262</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -8209,7 +8213,7 @@
         <v>-127.99999999999994</v>
       </c>
       <c r="B220" s="3">
-        <v>-1.1940773224667902</v>
+        <v>-1.0885786683733765</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -8217,7 +8221,7 @@
         <v>-124.00000000000006</v>
       </c>
       <c r="B221" s="3">
-        <v>-1.178047608137597</v>
+        <v>-0.92326044227787285</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -8225,7 +8229,7 @@
         <v>-119.99999999999993</v>
       </c>
       <c r="B222" s="3">
-        <v>-1.1471023594974616</v>
+        <v>-0.75374345348520311</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -8233,7 +8237,7 @@
         <v>-116.00000000000003</v>
       </c>
       <c r="B223" s="3">
-        <v>-1.1037889326880417</v>
+        <v>-0.58877118081436608</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -8241,7 +8245,7 @@
         <v>-111.99999999999996</v>
       </c>
       <c r="B224" s="3">
-        <v>-1.0504701861604435</v>
+        <v>-0.42928672000310886</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -8249,7 +8253,7 @@
         <v>-108.00000000000001</v>
       </c>
       <c r="B225" s="3">
-        <v>-0.98928296097102209</v>
+        <v>-0.27653165268668445</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -8257,7 +8261,7 @@
         <v>-103.99999999999993</v>
       </c>
       <c r="B226" s="3">
-        <v>-0.922415587171179</v>
+        <v>-0.13423799325161245</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -8265,7 +8269,7 @@
         <v>-100.00000000000001</v>
       </c>
       <c r="B227" s="3">
-        <v>-0.85201855991814179</v>
+        <v>-1.5569786561427934E-3</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -8273,7 +8277,7 @@
         <v>-96.000000000000099</v>
       </c>
       <c r="B228" s="3">
-        <v>-0.78012835397904412</v>
+        <v>0.11840866447771481</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -8281,7 +8285,7 @@
         <v>-92.000000000000014</v>
       </c>
       <c r="B229" s="3">
-        <v>-0.70855618476954396</v>
+        <v>0.22749343648736298</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -8289,7 +8293,7 @@
         <v>-88.000000000000099</v>
       </c>
       <c r="B230" s="3">
-        <v>-0.63883709393159449</v>
+        <v>0.32506428087759209</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
@@ -8297,7 +8301,7 @@
         <v>-84</v>
       </c>
       <c r="B231" s="3">
-        <v>-0.57217721622010553</v>
+        <v>0.4126650052659252</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -8305,7 +8309,7 @@
         <v>-80.000000000000085</v>
       </c>
       <c r="B232" s="3">
-        <v>-0.50944710877943034</v>
+        <v>0.48993287870360613</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -8313,7 +8317,7 @@
         <v>-76</v>
       </c>
       <c r="B233" s="3">
-        <v>-0.4512248807677311</v>
+        <v>0.5573416989041069</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -8321,7 +8325,7 @@
         <v>-72.000000000000085</v>
       </c>
       <c r="B234" s="3">
-        <v>-0.39781753776288797</v>
+        <v>0.6158431104861346</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -8329,7 +8333,7 @@
         <v>-67.999999999999972</v>
       </c>
       <c r="B235" s="3">
-        <v>-0.34931692923234259</v>
+        <v>0.66756019538799727</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -8337,7 +8341,7 @@
         <v>-64.000000000000057</v>
       </c>
       <c r="B236" s="3">
-        <v>-0.30565036006054236</v>
+        <v>0.71477939113843592</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -8345,7 +8349,7 @@
         <v>-60</v>
       </c>
       <c r="B237" s="3">
-        <v>-0.2666222568878569</v>
+        <v>0.75350817986059659</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -8353,7 +8357,7 @@
         <v>-56.000000000000057</v>
       </c>
       <c r="B238" s="3">
-        <v>-0.2319642542322187</v>
+        <v>0.78735227440961153</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -8361,7 +8365,7 @@
         <v>-51.999999999999972</v>
       </c>
       <c r="B239" s="3">
-        <v>-0.20134225464390149</v>
+        <v>0.81799529554682793</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -8369,7 +8373,7 @@
         <v>-48.000000000000057</v>
       </c>
       <c r="B240" s="3">
-        <v>-0.1744212618843379</v>
+        <v>0.84294360277377178</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -8377,7 +8381,7 @@
         <v>-43.999999999999972</v>
       </c>
       <c r="B241" s="3">
-        <v>-0.15084059673592687</v>
+        <v>0.86488567107086056</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -8385,7 +8389,7 @@
         <v>-40.000000000000057</v>
       </c>
       <c r="B242" s="3">
-        <v>-0.13025507993419741</v>
+        <v>0.88455262864298345</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -8393,7 +8397,7 @@
         <v>-35.999999999999943</v>
       </c>
       <c r="B243" s="3">
-        <v>-0.11233572702159013</v>
+        <v>0.90078765968986252</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -8401,7 +8405,7 @@
         <v>-32.000000000000028</v>
       </c>
       <c r="B244" s="3">
-        <v>-9.6777526426964869E-2</v>
+        <v>0.91520085106103155</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -8409,7 +8413,7 @@
         <v>-27.999999999999943</v>
       </c>
       <c r="B245" s="3">
-        <v>-8.329580499166328E-2</v>
+        <v>0.92751490936250858</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -8417,7 +8421,7 @@
         <v>-24.000000000000028</v>
       </c>
       <c r="B246" s="3">
-        <v>-7.1634267462205081E-2</v>
+        <v>0.93750793126365306</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -8425,7 +8429,7 @@
         <v>-19.999999999999943</v>
       </c>
       <c r="B247" s="3">
-        <v>-6.1563281717737145E-2</v>
+        <v>0.94652359137879216</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -8433,7 +8437,7 @@
         <v>-16.000000000000028</v>
       </c>
       <c r="B248" s="3">
-        <v>-5.2876922141042774E-2</v>
+        <v>0.95410485457598648</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
@@ -8441,7 +8445,7 @@
         <v>-11.999999999999943</v>
       </c>
       <c r="B249" s="3">
-        <v>-4.5393796115872825E-2</v>
+        <v>0.96014406924271889</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -8449,7 +8453,7 @@
         <v>-8.0000000000000284</v>
       </c>
       <c r="B250" s="3">
-        <v>-3.8953602326192091E-2</v>
+        <v>0.96570431879740859</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
@@ -8457,7 +8461,7 @@
         <v>-3.9999999999998863</v>
       </c>
       <c r="B251" s="3">
-        <v>-3.3408281588152747E-2</v>
+        <v>0.97101414534165764</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
@@ -8465,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="B252" s="3">
-        <v>-2.8646698420519996E-2</v>
+        <v>0.97526223519423205</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
@@ -8473,7 +8477,7 @@
         <v>3.9999999999998863</v>
       </c>
       <c r="B253" s="3">
-        <v>-2.4557987588902E-2</v>
+        <v>0.97865759975809496</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
@@ -8481,7 +8485,7 @@
         <v>7.9999999999999716</v>
       </c>
       <c r="B254" s="3">
-        <v>-2.1044873529585475E-2</v>
+        <v>0.98145941756069033</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
@@ -8489,7 +8493,7 @@
         <v>11.999999999999915</v>
       </c>
       <c r="B255" s="3">
-        <v>-1.8035383043521695E-2</v>
+        <v>0.98390772485606381</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -8497,7 +8501,7 @@
         <v>16</v>
       </c>
       <c r="B256" s="3">
-        <v>-1.5450789330452477E-2</v>
+        <v>0.98624255789802706</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
@@ -8505,7 +8509,7 @@
         <v>19.999999999999943</v>
       </c>
       <c r="B257" s="3">
-        <v>-1.3235065620352883E-2</v>
+        <v>0.9886402577024902</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
@@ -8513,7 +8517,7 @@
         <v>24</v>
       </c>
       <c r="B258" s="3">
-        <v>-1.1335597193809136E-2</v>
+        <v>0.99030290426634426</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -8521,7 +8525,7 @@
         <v>27.999999999999915</v>
       </c>
       <c r="B259" s="3">
-        <v>-9.7077558484118445E-3</v>
+        <v>0.99181004109123416</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
@@ -8529,7 +8533,7 @@
         <v>32.000000000000028</v>
       </c>
       <c r="B260" s="3">
-        <v>-8.3130192116671053E-3</v>
+        <v>0.9932500284131659</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
@@ -8537,7 +8541,7 @@
         <v>35.999999999999943</v>
       </c>
       <c r="B261" s="3">
-        <v>-7.1178840847075601E-3</v>
+        <v>0.99464717538268621</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
@@ -8545,7 +8549,7 @@
         <v>40.000000000000057</v>
       </c>
       <c r="B262" s="3">
-        <v>-6.0945266824178664E-3</v>
+        <v>0.99551412539722806</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
@@ -8553,7 +8557,7 @@
         <v>43.999999999999943</v>
       </c>
       <c r="B263" s="3">
-        <v>-5.2186571955732232E-3</v>
+        <v>0.99612813256438992</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
@@ -8561,7 +8565,7 @@
         <v>48</v>
       </c>
       <c r="B264" s="3">
-        <v>-4.4665666764469201E-3</v>
+        <v>0.99648877682623849</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
@@ -8569,7 +8573,7 @@
         <v>51.999999999999943</v>
       </c>
       <c r="B265" s="3">
-        <v>-3.8235079626415701E-3</v>
+        <v>0.99667600458926964</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
@@ -8577,7 +8581,7 @@
         <v>56.000000000000057</v>
       </c>
       <c r="B266" s="3">
-        <v>-3.2729914425741235E-3</v>
+        <v>0.99716360526476588</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -8585,7 +8589,7 @@
         <v>59.999999999999943</v>
       </c>
       <c r="B267" s="3">
-        <v>-2.801755086983328E-3</v>
+        <v>0.99779519657379867</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -8593,7 +8597,7 @@
         <v>64.000000000000057</v>
       </c>
       <c r="B268" s="3">
-        <v>-2.3981727273745912E-3</v>
+        <v>0.99864802675220643</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -8601,7 +8605,7 @@
         <v>67.999999999999943</v>
       </c>
       <c r="B269" s="3">
-        <v>-2.0526487988061408E-3</v>
+        <v>0.99953621255424752</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -8609,7 +8613,7 @@
         <v>72.000000000000057</v>
       </c>
       <c r="B270" s="3">
-        <v>-1.7569013647758753E-3</v>
+        <v>0.99961700534018361</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -8617,7 +8621,7 @@
         <v>76</v>
       </c>
       <c r="B271" s="3">
-        <v>-1.5035122457092206E-3</v>
+        <v>0.99953087692249298</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -8625,7 +8629,7 @@
         <v>80.000000000000057</v>
       </c>
       <c r="B272" s="3">
-        <v>-1.2864984531292471E-3</v>
+        <v>0.99927782730098036</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -8633,7 +8637,7 @@
         <v>84</v>
       </c>
       <c r="B273" s="3">
-        <v>-1.1012615619118006E-3</v>
+        <v>0.99904860765377279</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
@@ -8641,7 +8645,7 @@
         <v>88.000000000000057</v>
       </c>
       <c r="B274" s="3">
-        <v>-9.429415841623875E-4</v>
+        <v>0.99931014143226538</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
@@ -8649,7 +8653,7 @@
         <v>92</v>
       </c>
       <c r="B275" s="3">
-        <v>-8.0708007511530433E-4</v>
+        <v>0.99971142588961914</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
@@ -8657,7 +8661,7 @@
         <v>96.000000000000114</v>
       </c>
       <c r="B276" s="3">
-        <v>-6.9037642758847724E-4</v>
+        <v>1.0002524610261263</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -8665,7 +8669,7 @@
         <v>100</v>
       </c>
       <c r="B277" s="3">
-        <v>-5.9014777377550652E-4</v>
+        <v>1.001810899773794</v>
       </c>
     </row>
   </sheetData>
@@ -8682,8 +8686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8738,8 +8742,8 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="11"/>
       <c r="B4" s="16">
-        <f>0.01*100</f>
-        <v>1</v>
+        <f>0.01</f>
+        <v>0.01</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="14" t="s">
@@ -8765,8 +8769,8 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="17">
-        <f>0.05*1E-20</f>
-        <v>4.9999999999999995E-22</v>
+        <f>0.05</f>
+        <v>0.05</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="13" t="s">
@@ -8786,8 +8790,8 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="16">
-        <f>1000000*1E-26</f>
-        <v>1.0000000000000001E-20</v>
+        <f>1000000</f>
+        <v>1000000</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="13" t="s">
@@ -8894,8 +8898,8 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="15">
-        <v>9.9999999999999995E-21</v>
+      <c r="B21" s="24">
+        <v>20000</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="13" t="s">
@@ -8905,7 +8909,7 @@
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="15">
-        <v>9.9999999999999995E-21</v>
+        <v>0.1</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="13" t="s">
@@ -8934,7 +8938,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8968,7 +8972,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="21">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -9002,7 +9006,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>21</v>
@@ -9028,7 +9032,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="22">
-        <v>9.9999999999999995E-7</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">

--- a/project/windows10/Input_Data_and_Params.xlsx
+++ b/project/windows10/Input_Data_and_Params.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Buesen\Desktop\cv-sim-ec-prime-film\project\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABAF5F-04BC-4F08-AF57-2D775C219EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA67A5-F0C2-4F13-B72F-DFA91102E4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExptlCVData" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>Potential [mV]</t>
   </si>
@@ -141,9 +141,6 @@
   </si>
   <si>
     <t>Double Layer Capacitance</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
 </sst>
 </file>
@@ -309,10 +306,10 @@
     <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6445,7 +6442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B277"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -8686,8 +8683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMD23"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8898,7 +8895,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
-      <c r="B21" s="24">
+      <c r="B21" s="23">
         <v>20000</v>
       </c>
       <c r="C21" s="6"/>
@@ -8938,7 +8935,7 @@
   <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8948,14 +8945,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="B2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
@@ -8966,7 +8963,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>17</v>
@@ -8986,7 +8983,7 @@
         <v>18</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>

--- a/project/windows10/Input_Data_and_Params.xlsx
+++ b/project/windows10/Input_Data_and_Params.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darren Buesen\Desktop\cv-sim-ec-prime-film\project\windows10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA67A5-F0C2-4F13-B72F-DFA91102E4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4DB5E-C581-4490-BF30-F10192014C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8719,6 +8719,7 @@
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="11"/>
       <c r="B2" s="15">
+        <f>60</f>
         <v>60</v>
       </c>
       <c r="C2" s="6"/>
@@ -8766,7 +8767,6 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="17">
-        <f>0.05</f>
         <v>0.05</v>
       </c>
       <c r="C7" s="6"/>
@@ -8787,7 +8787,6 @@
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="16">
-        <f>1000000</f>
         <v>1000000</v>
       </c>
       <c r="C9" s="6"/>
